--- a/data/trans_orig/P0802-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P0802-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>230547</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>216865</v>
+        <v>217870</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>240646</v>
+        <v>242141</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8444627693610447</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7943464875526052</v>
+        <v>0.7980299360470425</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.881453891877211</v>
+        <v>0.8869292368730609</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>199</v>
@@ -765,19 +765,19 @@
         <v>211711</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>198291</v>
+        <v>196665</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>223817</v>
+        <v>223295</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8116575579915644</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7602073463242452</v>
+        <v>0.753971884611184</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.858067364506969</v>
+        <v>0.8560687169984916</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>427</v>
@@ -786,19 +786,19 @@
         <v>442258</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>422839</v>
+        <v>424740</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>458247</v>
+        <v>460313</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8284341465796476</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7920596721939124</v>
+        <v>0.7956193228507082</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.858384269188053</v>
+        <v>0.8622555527288086</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>31552</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>23018</v>
+        <v>22189</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>42810</v>
+        <v>42152</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1155706416869598</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08431085593523889</v>
+        <v>0.08127607865296041</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1568062442089763</v>
+        <v>0.1543981172384029</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>39</v>
@@ -836,19 +836,19 @@
         <v>41412</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>29887</v>
+        <v>30753</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>54787</v>
+        <v>55318</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1587657066864379</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1145801819710562</v>
+        <v>0.1179019469849949</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2100409013967915</v>
+        <v>0.2120788850614669</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>72</v>
@@ -857,19 +857,19 @@
         <v>72964</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>57669</v>
+        <v>58547</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>90927</v>
+        <v>89359</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.136675745845462</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1080256217137955</v>
+        <v>0.1096704506174469</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1703242456608164</v>
+        <v>0.1673874472426062</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>10911</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5335</v>
+        <v>5239</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>20186</v>
+        <v>18272</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03996658895199551</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01954203792785177</v>
+        <v>0.01919102843202685</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.07393868739452107</v>
+        <v>0.06692976361499824</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>7</v>
@@ -907,19 +907,19 @@
         <v>7715</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3244</v>
+        <v>3300</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>15297</v>
+        <v>15827</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02957673532199778</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01243872135686612</v>
+        <v>0.01265184642943671</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05864376062173031</v>
+        <v>0.06067590647269136</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>17</v>
@@ -928,19 +928,19 @@
         <v>18626</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>10593</v>
+        <v>10880</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>28934</v>
+        <v>29263</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03489010757489044</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01984291733285505</v>
+        <v>0.02037994654194303</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.05419905549308263</v>
+        <v>0.05481496421898444</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>425822</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>408091</v>
+        <v>407958</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>441064</v>
+        <v>439642</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.863605076344768</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8276438766435233</v>
+        <v>0.8273758344607859</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8945168703132442</v>
+        <v>0.891633781092166</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>378</v>
@@ -1053,19 +1053,19 @@
         <v>380189</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>359860</v>
+        <v>358879</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>397887</v>
+        <v>397955</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7544189035880856</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7140795394319031</v>
+        <v>0.7121342124610722</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7895386447505297</v>
+        <v>0.789672660979561</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>780</v>
@@ -1074,19 +1074,19 @@
         <v>806011</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>781717</v>
+        <v>780973</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>829055</v>
+        <v>829970</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8084165756031155</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7840506761321884</v>
+        <v>0.783303802221968</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8315292355911642</v>
+        <v>0.8324468931925748</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>49678</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>36993</v>
+        <v>36785</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>64189</v>
+        <v>64468</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1007516737114937</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.07502497958635268</v>
+        <v>0.0746037918070305</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.13018121178461</v>
+        <v>0.1307469066241874</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>78</v>
@@ -1124,19 +1124,19 @@
         <v>79074</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>64363</v>
+        <v>65093</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>96486</v>
+        <v>99500</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1569093320207105</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1277167167252852</v>
+        <v>0.129166286561885</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1914589303064539</v>
+        <v>0.1974407361167614</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>125</v>
@@ -1145,19 +1145,19 @@
         <v>128752</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>108858</v>
+        <v>107518</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>150088</v>
+        <v>149267</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1291367419760831</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1091833621701564</v>
+        <v>0.1078392536298191</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1505363364030346</v>
+        <v>0.1497126009405417</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>17575</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10745</v>
+        <v>10648</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>28496</v>
+        <v>28773</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03564324994373824</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02179157742524052</v>
+        <v>0.02159541106208288</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05779292062373011</v>
+        <v>0.05835387008321143</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>43</v>
@@ -1195,19 +1195,19 @@
         <v>44686</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>33531</v>
+        <v>33324</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>59496</v>
+        <v>59500</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08867176439120387</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06653730912617623</v>
+        <v>0.0661259143623877</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1180605006647975</v>
+        <v>0.1180680475637388</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>59</v>
@@ -1216,19 +1216,19 @@
         <v>62261</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>48032</v>
+        <v>47418</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>78086</v>
+        <v>78430</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0624466824208014</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04817556716732242</v>
+        <v>0.04755982392664202</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07831869373773322</v>
+        <v>0.07866400562664114</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>282291</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>270529</v>
+        <v>268243</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>292857</v>
+        <v>292216</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8853536377707503</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8484642225912088</v>
+        <v>0.8412945703506745</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9184894086072087</v>
+        <v>0.9164815154269893</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>251</v>
@@ -1341,19 +1341,19 @@
         <v>249913</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>233194</v>
+        <v>234503</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>265626</v>
+        <v>264485</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.745092066347205</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.6952477868831157</v>
+        <v>0.6991498794450974</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.791939771996063</v>
+        <v>0.7885374128223067</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>524</v>
@@ -1362,19 +1362,19 @@
         <v>532204</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>511760</v>
+        <v>512650</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>551094</v>
+        <v>551321</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8134471105471041</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7821990284959826</v>
+        <v>0.7835589095748026</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8423197008131812</v>
+        <v>0.8426657556877056</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>30079</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>21118</v>
+        <v>20993</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>41795</v>
+        <v>43162</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09433665647204562</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06623288817534652</v>
+        <v>0.06584182391616715</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1310835430253257</v>
+        <v>0.1353688297658762</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>65</v>
@@ -1412,19 +1412,19 @@
         <v>65655</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>52392</v>
+        <v>51724</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>81565</v>
+        <v>80029</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1957435352580542</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1562026682071604</v>
+        <v>0.1542099917324271</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2431775606636871</v>
+        <v>0.2385985104431621</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>96</v>
@@ -1433,19 +1433,19 @@
         <v>95734</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>79249</v>
+        <v>80354</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>114906</v>
+        <v>114376</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.146323928652764</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1211280914471992</v>
+        <v>0.1228165834921571</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1756278017232019</v>
+        <v>0.1748186344208851</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>6476</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2611</v>
+        <v>2670</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>14375</v>
+        <v>13574</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02030970575720416</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.00818917081585286</v>
+        <v>0.008374171559924979</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0450832912063769</v>
+        <v>0.04257173214593402</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>19</v>
@@ -1483,19 +1483,19 @@
         <v>19844</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>12348</v>
+        <v>11571</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>30229</v>
+        <v>29576</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.05916439839474071</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03681562791998329</v>
+        <v>0.03449715955513179</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.09012372057937873</v>
+        <v>0.0881786959239975</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>25</v>
@@ -1504,19 +1504,19 @@
         <v>26320</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>17649</v>
+        <v>16963</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>37939</v>
+        <v>38134</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.04022896080013195</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02697573186986575</v>
+        <v>0.0259276987723604</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05798739598173985</v>
+        <v>0.05828636851529839</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>312876</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>299823</v>
+        <v>297979</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>324528</v>
+        <v>323973</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8723201294799449</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8359282621278024</v>
+        <v>0.8307859898547433</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9048057713193751</v>
+        <v>0.9032582060763632</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>297</v>
@@ -1629,19 +1629,19 @@
         <v>285048</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>270009</v>
+        <v>268076</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>300577</v>
+        <v>301251</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7673814266979467</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7268947587460307</v>
+        <v>0.7216889342388952</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8091858301131739</v>
+        <v>0.8110012564062929</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>612</v>
@@ -1650,19 +1650,19 @@
         <v>597924</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>576866</v>
+        <v>577035</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>615962</v>
+        <v>616216</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8189320161809039</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7900894531971386</v>
+        <v>0.7903210219301364</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.843637088809686</v>
+        <v>0.8439848033493407</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>36891</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>26560</v>
+        <v>26331</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>49461</v>
+        <v>49296</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1028533682718494</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07405192149449485</v>
+        <v>0.07341157309626194</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1379011271922522</v>
+        <v>0.1374410626765729</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>70</v>
@@ -1700,19 +1700,19 @@
         <v>69482</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>55591</v>
+        <v>55366</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>84973</v>
+        <v>85629</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1870536872904205</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1496566725461251</v>
+        <v>0.1490510409703308</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2287578697415211</v>
+        <v>0.2305215329774375</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>108</v>
@@ -1721,19 +1721,19 @@
         <v>106373</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>89529</v>
+        <v>90419</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>125543</v>
+        <v>126202</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1456907204822868</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1226216895576354</v>
+        <v>0.1238407492448228</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1719474487312683</v>
+        <v>0.1728499899604276</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>8905</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4226</v>
+        <v>4624</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>16235</v>
+        <v>16961</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02482650224820573</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01178272541875479</v>
+        <v>0.01289195560171346</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.04526567237195733</v>
+        <v>0.04728960214748022</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>17</v>
@@ -1771,19 +1771,19 @@
         <v>16925</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>9790</v>
+        <v>9916</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>25637</v>
+        <v>25980</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.04556488601163274</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02635625346448136</v>
+        <v>0.02669434609295029</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.06901735905179375</v>
+        <v>0.06994048925614493</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>26</v>
@@ -1792,19 +1792,19 @@
         <v>25830</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>16693</v>
+        <v>17141</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>36866</v>
+        <v>37771</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.03537726333680922</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.0228629845407911</v>
+        <v>0.02347732461233137</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.05049230761994839</v>
+        <v>0.05173186773432285</v>
       </c>
     </row>
     <row r="19">
@@ -1896,19 +1896,19 @@
         <v>184478</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>175481</v>
+        <v>175443</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>191519</v>
+        <v>192061</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9073830947223462</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8631285839756736</v>
+        <v>0.8629399483811367</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9420164441431063</v>
+        <v>0.9446801752568843</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>162</v>
@@ -1917,19 +1917,19 @@
         <v>168908</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>155608</v>
+        <v>155218</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>178846</v>
+        <v>179034</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8133562989151358</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7493115886663685</v>
+        <v>0.7474335593517197</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8612121232512218</v>
+        <v>0.8621164424970592</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>346</v>
@@ -1938,19 +1938,19 @@
         <v>353386</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>338690</v>
+        <v>337971</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>366655</v>
+        <v>365790</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8598709420753872</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8241109719960501</v>
+        <v>0.8223626225487743</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8921563454830319</v>
+        <v>0.890050954948408</v>
       </c>
     </row>
     <row r="21">
@@ -1967,19 +1967,19 @@
         <v>11832</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>6511</v>
+        <v>5971</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>19042</v>
+        <v>18697</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.05819918635339903</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03202516480571419</v>
+        <v>0.02936752242213874</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.09366112585516048</v>
+        <v>0.09196280538552314</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>23</v>
@@ -1988,19 +1988,19 @@
         <v>24676</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>16425</v>
+        <v>16189</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>35088</v>
+        <v>35735</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1188236712594195</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.07909238413379149</v>
+        <v>0.07795427151813167</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1689636450235514</v>
+        <v>0.1720760309049023</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>37</v>
@@ -2009,19 +2009,19 @@
         <v>36508</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>25611</v>
+        <v>26173</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>48860</v>
+        <v>49320</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.08883300468433514</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.06231638351678303</v>
+        <v>0.06368462522357832</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1188888920765281</v>
+        <v>0.1200079147636694</v>
       </c>
     </row>
     <row r="22">
@@ -2038,19 +2038,19 @@
         <v>6997</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3427</v>
+        <v>3411</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>13610</v>
+        <v>13117</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03441771892425475</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01685418898311145</v>
+        <v>0.01677876975474125</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06694253603258701</v>
+        <v>0.06451704822876475</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>13</v>
@@ -2059,19 +2059,19 @@
         <v>14084</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>7619</v>
+        <v>8434</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>22709</v>
+        <v>22863</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06782002982544473</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03668649473907973</v>
+        <v>0.04061528173389934</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1093527404089477</v>
+        <v>0.1100946696198394</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>21</v>
@@ -2080,19 +2080,19 @@
         <v>21081</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>13714</v>
+        <v>14029</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>31394</v>
+        <v>31653</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05129605324027771</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03337051931938231</v>
+        <v>0.03413532142256303</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07638769753970584</v>
+        <v>0.07701903537864706</v>
       </c>
     </row>
     <row r="23">
@@ -2184,19 +2184,19 @@
         <v>229065</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>216379</v>
+        <v>215988</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>240409</v>
+        <v>240268</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.8458500410748003</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.7990031046627926</v>
+        <v>0.7975591486841569</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.8877358145163716</v>
+        <v>0.8872171776425195</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>202</v>
@@ -2205,19 +2205,19 @@
         <v>206520</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>191754</v>
+        <v>190275</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>220731</v>
+        <v>220846</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.7424919438563422</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.6894057168290101</v>
+        <v>0.6840876808297517</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.7935837783223307</v>
+        <v>0.7939982129246937</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>426</v>
@@ -2226,19 +2226,19 @@
         <v>435585</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>417014</v>
+        <v>417870</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>453905</v>
+        <v>453775</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.793480658550945</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.7596511152909529</v>
+        <v>0.7612099493450161</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.8268526517046971</v>
+        <v>0.8266162736929286</v>
       </c>
     </row>
     <row r="25">
@@ -2255,19 +2255,19 @@
         <v>36010</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>25275</v>
+        <v>26218</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>47562</v>
+        <v>49118</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1329696110453525</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.09332922488529788</v>
+        <v>0.09681177545625581</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1756281419444858</v>
+        <v>0.1813737557987384</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>53</v>
@@ -2276,19 +2276,19 @@
         <v>55107</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>42107</v>
+        <v>42878</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>67724</v>
+        <v>69915</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1981234146320319</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1513850108105891</v>
+        <v>0.1541581411665982</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2434847149230349</v>
+        <v>0.2513632626977038</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>89</v>
@@ -2297,19 +2297,19 @@
         <v>91116</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>75134</v>
+        <v>72922</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>108778</v>
+        <v>107743</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1659816783602451</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1368680326562905</v>
+        <v>0.1328375780408207</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1981554609000377</v>
+        <v>0.1962695775128338</v>
       </c>
     </row>
     <row r="26">
@@ -2326,19 +2326,19 @@
         <v>5736</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2672</v>
+        <v>1917</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>11967</v>
+        <v>11021</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02118034787984718</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.009867132529809185</v>
+        <v>0.007077959016883551</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04419074290758725</v>
+        <v>0.04069495418044948</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>15</v>
@@ -2347,19 +2347,19 @@
         <v>16517</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>9271</v>
+        <v>9895</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>25551</v>
+        <v>25994</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.05938464151162591</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03333002206817216</v>
+        <v>0.03557482107494019</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.09186401297628834</v>
+        <v>0.09345470053485017</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>21</v>
@@ -2368,19 +2368,19 @@
         <v>22253</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>14744</v>
+        <v>14578</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>32334</v>
+        <v>34733</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.04053766308880993</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02685804141081072</v>
+        <v>0.02655659797344947</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.05890189302778302</v>
+        <v>0.06327076615296211</v>
       </c>
     </row>
     <row r="27">
@@ -2472,19 +2472,19 @@
         <v>519924</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>501666</v>
+        <v>502512</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>535408</v>
+        <v>538212</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.8453671281996535</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.8156814148124469</v>
+        <v>0.8170563689253686</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8705431498246246</v>
+        <v>0.875103061654069</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>474</v>
@@ -2493,7 +2493,7 @@
         <v>490984</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>468557</v>
+        <v>468040</v>
       </c>
       <c r="M28" s="5" t="n">
         <v>510761</v>
@@ -2502,10 +2502,10 @@
         <v>0.7693035671561822</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.7341635044351905</v>
+        <v>0.733352947939763</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8002909923754401</v>
+        <v>0.8002907931189133</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>972</v>
@@ -2514,19 +2514,19 @@
         <v>1010908</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>983731</v>
+        <v>983513</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1037637</v>
+        <v>1039359</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.8066315478378152</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.7849464772805239</v>
+        <v>0.7847727188507883</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8279596952771457</v>
+        <v>0.8293339432442529</v>
       </c>
     </row>
     <row r="29">
@@ -2543,19 +2543,19 @@
         <v>72050</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>57826</v>
+        <v>57120</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>90806</v>
+        <v>88117</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1171494512706917</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.09402223024698782</v>
+        <v>0.09287360223269527</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1476451103189846</v>
+        <v>0.1432732987001117</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>103</v>
@@ -2564,19 +2564,19 @@
         <v>103003</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>86169</v>
+        <v>84625</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>122365</v>
+        <v>122745</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1613920311597817</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1350153915985629</v>
+        <v>0.1325950496248817</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1917289069622332</v>
+        <v>0.1923239921709402</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>179</v>
@@ -2585,19 +2585,19 @@
         <v>175054</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>152741</v>
+        <v>152392</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>198818</v>
+        <v>199192</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1396801083316918</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1218763658963234</v>
+        <v>0.1215978999066546</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1586422543844587</v>
+        <v>0.1589406896105612</v>
       </c>
     </row>
     <row r="30">
@@ -2614,19 +2614,19 @@
         <v>23053</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>15689</v>
+        <v>14687</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>34483</v>
+        <v>34600</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.03748342052965466</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.02551007463166459</v>
+        <v>0.02388018121199849</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.05606721703272319</v>
+        <v>0.05625820361887419</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>44</v>
@@ -2635,19 +2635,19 @@
         <v>44231</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>32416</v>
+        <v>32823</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>58982</v>
+        <v>58871</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.06930440168403611</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.05079107858766287</v>
+        <v>0.0514295157695658</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.09241656567443185</v>
+        <v>0.09224332767715511</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>68</v>
@@ -2656,19 +2656,19 @@
         <v>67285</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>52549</v>
+        <v>52198</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>84455</v>
+        <v>84928</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.05368834383049298</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.04193027000443558</v>
+        <v>0.04165026691402032</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.06738924728832064</v>
+        <v>0.0677663947045911</v>
       </c>
     </row>
     <row r="31">
@@ -2760,19 +2760,19 @@
         <v>635224</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>614630</v>
+        <v>615013</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>654036</v>
+        <v>652502</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8540306887975828</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8263431848944548</v>
+        <v>0.8268580222058403</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8793228623615195</v>
+        <v>0.8772606435518677</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>575</v>
@@ -2781,19 +2781,19 @@
         <v>600327</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>576409</v>
+        <v>574895</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>624189</v>
+        <v>622847</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.7662005106394374</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.7356750113059874</v>
+        <v>0.7337420644275352</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7966564409771175</v>
+        <v>0.7949430617675058</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1198</v>
@@ -2802,19 +2802,19 @@
         <v>1235550</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1206287</v>
+        <v>1202538</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1265802</v>
+        <v>1263996</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.8089736348523454</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.7898133577062038</v>
+        <v>0.7873588042589651</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8287810317553591</v>
+        <v>0.8275983547047547</v>
       </c>
     </row>
     <row r="33">
@@ -2831,19 +2831,19 @@
         <v>67219</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>53718</v>
+        <v>54179</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>85028</v>
+        <v>85317</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.09037308179608478</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.07222146217177988</v>
+        <v>0.07284103462022211</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1143160428875647</v>
+        <v>0.1147052036589666</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>125</v>
@@ -2852,19 +2852,19 @@
         <v>133664</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>113304</v>
+        <v>112673</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>157196</v>
+        <v>155637</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.1705963459549979</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1446105674887573</v>
+        <v>0.1438053245287648</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.2006296996542011</v>
+        <v>0.1986410518751399</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>194</v>
@@ -2873,19 +2873,19 @@
         <v>200883</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>177055</v>
+        <v>174867</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>227313</v>
+        <v>228142</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1315277739152645</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.1159266309495151</v>
+        <v>0.1144938170865284</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.148832936628151</v>
+        <v>0.149375553046447</v>
       </c>
     </row>
     <row r="34">
@@ -2902,19 +2902,19 @@
         <v>41352</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>30598</v>
+        <v>29780</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>55222</v>
+        <v>54798</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.05559622940633237</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.0411377168733013</v>
+        <v>0.04003806885143139</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.07424304794231079</v>
+        <v>0.073673170076269</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>45</v>
@@ -2923,19 +2923,19 @@
         <v>49520</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>37714</v>
+        <v>36166</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>64562</v>
+        <v>64895</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.06320314340556472</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.04813509340276506</v>
+        <v>0.04615832562118137</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.08240110704703089</v>
+        <v>0.08282629105820738</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>89</v>
@@ -2944,19 +2944,19 @@
         <v>90873</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>73893</v>
+        <v>74493</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>110981</v>
+        <v>111297</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.05949859123239007</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.04838144468186702</v>
+        <v>0.04877434530091035</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.07266442351355847</v>
+        <v>0.07287167804653466</v>
       </c>
     </row>
     <row r="35">
@@ -3048,19 +3048,19 @@
         <v>2820227</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2782043</v>
+        <v>2776907</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2859184</v>
+        <v>2858080</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.8607325945129319</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.8490786432408671</v>
+        <v>0.8475111739101719</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.872622210900542</v>
+        <v>0.8722850801915306</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>2538</v>
@@ -3069,19 +3069,19 @@
         <v>2593599</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>2546799</v>
+        <v>2543258</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>2643126</v>
+        <v>2639195</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.7675194683220637</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.7536697739065173</v>
+        <v>0.7526219458129769</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.7821758962741636</v>
+        <v>0.7810124388057775</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>5285</v>
@@ -3090,19 +3090,19 @@
         <v>5413828</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>5348341</v>
+        <v>5350564</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>5473463</v>
+        <v>5473740</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.8134072008924328</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.8035680599040773</v>
+        <v>0.8039020119138419</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.8223672207040384</v>
+        <v>0.8224088606788151</v>
       </c>
     </row>
     <row r="37">
@@ -3119,19 +3119,19 @@
         <v>335311</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>302079</v>
+        <v>303507</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>370527</v>
+        <v>372095</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1023366923051532</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.09219432088312927</v>
+        <v>0.09263013196652013</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1130847136292031</v>
+        <v>0.1135633804732264</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>556</v>
@@ -3140,19 +3140,19 @@
         <v>572074</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>530593</v>
+        <v>530727</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>614249</v>
+        <v>617407</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1692927825703575</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1570175986518373</v>
+        <v>0.1570570404962851</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1817737523999029</v>
+        <v>0.1827081504874692</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>900</v>
@@ -3161,19 +3161,19 @@
         <v>907384</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>854667</v>
+        <v>854996</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>962904</v>
+        <v>963915</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1363310819000479</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.128410509597045</v>
+        <v>0.1284599359425139</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1446726238186077</v>
+        <v>0.1448245419183362</v>
       </c>
     </row>
     <row r="38">
@@ -3190,19 +3190,19 @@
         <v>121005</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>100627</v>
+        <v>100590</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>144209</v>
+        <v>145279</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.03693071318191486</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.03071145832284695</v>
+        <v>0.03069993653624647</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.04401252792700989</v>
+        <v>0.04433909061627581</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>203</v>
@@ -3211,19 +3211,19 @@
         <v>213524</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>184265</v>
+        <v>185663</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>244666</v>
+        <v>242527</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.06318774910757882</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.05452913585807757</v>
+        <v>0.05494279247666894</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.07240373657635334</v>
+        <v>0.0717707056896239</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>326</v>
@@ -3232,19 +3232,19 @@
         <v>334529</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>297347</v>
+        <v>302584</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>370959</v>
+        <v>372511</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.05026171720751924</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.04467523496622976</v>
+        <v>0.04546213280088623</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.05573523062472669</v>
+        <v>0.05596830889805599</v>
       </c>
     </row>
     <row r="39">
@@ -3580,19 +3580,19 @@
         <v>248079</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>234780</v>
+        <v>233008</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>260555</v>
+        <v>260068</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8416930370579493</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.796572235415467</v>
+        <v>0.7905585171771393</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8840217102015967</v>
+        <v>0.8823709199347132</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>184</v>
@@ -3601,19 +3601,19 @@
         <v>210255</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>194970</v>
+        <v>193616</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>225408</v>
+        <v>225523</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7319699690253014</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6787572419454133</v>
+        <v>0.6740440528053787</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7847245002620256</v>
+        <v>0.7851236417711491</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>420</v>
@@ -3622,19 +3622,19 @@
         <v>458334</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>437136</v>
+        <v>436099</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>477727</v>
+        <v>478829</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.787537845193145</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7511140549500342</v>
+        <v>0.7493320807404484</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8208611624280501</v>
+        <v>0.8227544416469197</v>
       </c>
     </row>
     <row r="5">
@@ -3651,19 +3651,19 @@
         <v>30548</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>20450</v>
+        <v>21109</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>42569</v>
+        <v>42804</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1036442478264044</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06938404570671317</v>
+        <v>0.0716196101616437</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.14442863574128</v>
+        <v>0.1452258956822427</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>35</v>
@@ -3672,19 +3672,19 @@
         <v>38026</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>26924</v>
+        <v>27985</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>50722</v>
+        <v>51296</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1323813322737777</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09373330714546982</v>
+        <v>0.09742544647947403</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1765816747594029</v>
+        <v>0.1785794609434264</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>65</v>
@@ -3693,19 +3693,19 @@
         <v>68574</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>53822</v>
+        <v>53899</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>86158</v>
+        <v>86550</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1178277950948742</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09247971680907037</v>
+        <v>0.09261319333265222</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1480413398892571</v>
+        <v>0.1487160267144192</v>
       </c>
     </row>
     <row r="6">
@@ -3722,19 +3722,19 @@
         <v>16111</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9606</v>
+        <v>9369</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>25259</v>
+        <v>25846</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.05466271511564638</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03259035559896949</v>
+        <v>0.0317875120106826</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.08569986710068721</v>
+        <v>0.08769080225051978</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>37</v>
@@ -3743,19 +3743,19 @@
         <v>38964</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>28822</v>
+        <v>28144</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>51994</v>
+        <v>53113</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1356486987009208</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1003385051019137</v>
+        <v>0.09797903324583453</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1810079564786351</v>
+        <v>0.1849064053473344</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>53</v>
@@ -3764,19 +3764,19 @@
         <v>55076</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>41312</v>
+        <v>41521</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>70437</v>
+        <v>71038</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.09463435971198091</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.07098441524481719</v>
+        <v>0.07134468735201865</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1210286332067831</v>
+        <v>0.122061898055974</v>
       </c>
     </row>
     <row r="7">
@@ -3868,19 +3868,19 @@
         <v>430427</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>409765</v>
+        <v>410116</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>445113</v>
+        <v>446763</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8514413139795559</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8105705489108748</v>
+        <v>0.8112643659186677</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8804925728330767</v>
+        <v>0.8837567213403625</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>358</v>
@@ -3889,19 +3889,19 @@
         <v>389574</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>366359</v>
+        <v>368184</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>407915</v>
+        <v>407114</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.743796001893658</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6994720716439327</v>
+        <v>0.7029566269038381</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7788133263614366</v>
+        <v>0.7772830587030086</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>767</v>
@@ -3910,19 +3910,19 @@
         <v>820001</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>788632</v>
+        <v>789594</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>844441</v>
+        <v>843147</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7966649890480743</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7661890514489426</v>
+        <v>0.7671229666617754</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8204096265782127</v>
+        <v>0.8191519254296604</v>
       </c>
     </row>
     <row r="9">
@@ -3939,19 +3939,19 @@
         <v>38025</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>27472</v>
+        <v>27187</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>52561</v>
+        <v>52497</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.07521779649309593</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.05434340086842792</v>
+        <v>0.05377884367594661</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1039721994338558</v>
+        <v>0.1038451146598634</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>69</v>
@@ -3960,19 +3960,19 @@
         <v>74731</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>59263</v>
+        <v>60932</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>92352</v>
+        <v>91703</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1426797330712536</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1131478489584822</v>
+        <v>0.1163345633968742</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1763229332869199</v>
+        <v>0.1750850312712603</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>103</v>
@@ -3981,19 +3981,19 @@
         <v>112755</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>93693</v>
+        <v>94522</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>134577</v>
+        <v>136968</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1095464345629398</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.09102687175667322</v>
+        <v>0.09183204992873498</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.130747380055429</v>
+        <v>0.1330697164435218</v>
       </c>
     </row>
     <row r="10">
@@ -4010,19 +4010,19 @@
         <v>37076</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>25794</v>
+        <v>25182</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>54363</v>
+        <v>54669</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07334088952734812</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05102396042895269</v>
+        <v>0.04981316461671059</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.107536645550579</v>
+        <v>0.10814262718895</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>53</v>
@@ -4031,19 +4031,19 @@
         <v>59460</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>45661</v>
+        <v>44605</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>76655</v>
+        <v>73885</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1135242650350884</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08717922875107219</v>
+        <v>0.08516196710252653</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1463541848033614</v>
+        <v>0.1410656835150327</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>82</v>
@@ -4052,19 +4052,19 @@
         <v>96536</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>77421</v>
+        <v>79767</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>116471</v>
+        <v>119791</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09378857638898601</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07521758121921113</v>
+        <v>0.07749668862711848</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1131568080134409</v>
+        <v>0.1163820838364276</v>
       </c>
     </row>
     <row r="11">
@@ -4156,19 +4156,19 @@
         <v>272233</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>256923</v>
+        <v>256004</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>284467</v>
+        <v>283859</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8401071719553088</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7928602422623393</v>
+        <v>0.7900237788323923</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8778608663069817</v>
+        <v>0.8759825106128193</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>244</v>
@@ -4177,19 +4177,19 @@
         <v>261844</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>244700</v>
+        <v>245194</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>276273</v>
+        <v>277838</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7678255424117117</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7175521898378878</v>
+        <v>0.7190003575032908</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8101365051781152</v>
+        <v>0.8147255402446582</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>515</v>
@@ -4198,19 +4198,19 @@
         <v>534077</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>514475</v>
+        <v>513468</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>554410</v>
+        <v>555127</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8030439608371821</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.773569721456044</v>
+        <v>0.7720551452935208</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8336172624444289</v>
+        <v>0.8346950376557115</v>
       </c>
     </row>
     <row r="13">
@@ -4227,19 +4227,19 @@
         <v>33275</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>23287</v>
+        <v>23194</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>46494</v>
+        <v>45830</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1026866164673302</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07186265850740779</v>
+        <v>0.07157749310052909</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.143479400285145</v>
+        <v>0.1414314762862532</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>50</v>
@@ -4248,19 +4248,19 @@
         <v>55196</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>41946</v>
+        <v>41455</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>69676</v>
+        <v>70381</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.161854614369256</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1230008277060488</v>
+        <v>0.1215613797177459</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2043167028086889</v>
+        <v>0.2063846715888246</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>81</v>
@@ -4269,19 +4269,19 @@
         <v>88471</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>71055</v>
+        <v>71090</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>107288</v>
+        <v>107448</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1330256668114188</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1068384425901091</v>
+        <v>0.1068915016314508</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1613186817732922</v>
+        <v>0.1615596873430061</v>
       </c>
     </row>
     <row r="14">
@@ -4298,19 +4298,19 @@
         <v>18537</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>11478</v>
+        <v>11469</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>28890</v>
+        <v>28953</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.05720621157736099</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03542099191496634</v>
+        <v>0.03539340968504803</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0891530673757425</v>
+        <v>0.08934940890504979</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>23</v>
@@ -4319,19 +4319,19 @@
         <v>23980</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>15589</v>
+        <v>15472</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>34499</v>
+        <v>33860</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.07031984321903226</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04571427497451916</v>
+        <v>0.04536904838311491</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1011641068527838</v>
+        <v>0.09928977482090469</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>40</v>
@@ -4340,19 +4340,19 @@
         <v>42518</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>30472</v>
+        <v>31198</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>54719</v>
+        <v>57828</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.06393037235139909</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04581786134238013</v>
+        <v>0.04690960742909436</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.08227599441705981</v>
+        <v>0.08695022219862124</v>
       </c>
     </row>
     <row r="15">
@@ -4444,19 +4444,19 @@
         <v>315151</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>298447</v>
+        <v>298752</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>328508</v>
+        <v>328466</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8426896269311793</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7980252167040682</v>
+        <v>0.7988400809812852</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8784046884852216</v>
+        <v>0.8782925446352546</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>254</v>
@@ -4465,19 +4465,19 @@
         <v>267627</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>249169</v>
+        <v>247422</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>287312</v>
+        <v>285017</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6880749088635332</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6406172958577731</v>
+        <v>0.63612644934839</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7386831085139397</v>
+        <v>0.7327827443036879</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>545</v>
@@ -4486,19 +4486,19 @@
         <v>582778</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>558971</v>
+        <v>557708</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>606341</v>
+        <v>603758</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7638654840031831</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7326607115173607</v>
+        <v>0.7310051055646009</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7947504532160815</v>
+        <v>0.7913649478407467</v>
       </c>
     </row>
     <row r="17">
@@ -4515,19 +4515,19 @@
         <v>31781</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>21752</v>
+        <v>21894</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>44803</v>
+        <v>44233</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08498043165261084</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05816420379220177</v>
+        <v>0.05854275418071518</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1198007594556115</v>
+        <v>0.1182753647600549</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>53</v>
@@ -4536,19 +4536,19 @@
         <v>54295</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>41004</v>
+        <v>42354</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>68270</v>
+        <v>70946</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1395946708851496</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1054216970952207</v>
+        <v>0.1088940592164138</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1755224977774002</v>
+        <v>0.1824045978534569</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>82</v>
@@ -4557,19 +4557,19 @@
         <v>86077</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>69073</v>
+        <v>68411</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>104171</v>
+        <v>105431</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1128233217278361</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09053597286471279</v>
+        <v>0.08966836784038705</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1365404718927382</v>
+        <v>0.1381922140718397</v>
       </c>
     </row>
     <row r="18">
@@ -4586,19 +4586,19 @@
         <v>27050</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>17429</v>
+        <v>17497</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>38945</v>
+        <v>39820</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.0723299414162098</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04660404721421735</v>
+        <v>0.04678679266291592</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1041357728557593</v>
+        <v>0.1064752047484957</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>64</v>
@@ -4607,19 +4607,19 @@
         <v>67028</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>52804</v>
+        <v>53950</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>81888</v>
+        <v>83105</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1723304202513172</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1357598863134081</v>
+        <v>0.1387066905820072</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2105356049260164</v>
+        <v>0.2136644986085869</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>88</v>
@@ -4628,19 +4628,19 @@
         <v>94078</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>75900</v>
+        <v>77554</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>113249</v>
+        <v>114235</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1233111942689808</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.09948404377737971</v>
+        <v>0.1016525970152492</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1484384882207907</v>
+        <v>0.1497317574143001</v>
       </c>
     </row>
     <row r="19">
@@ -4732,19 +4732,19 @@
         <v>175746</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>161871</v>
+        <v>162382</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>186252</v>
+        <v>185832</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.826580880614215</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7613230904879128</v>
+        <v>0.7637252278874909</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.875994085456946</v>
+        <v>0.8740163961264777</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>148</v>
@@ -4753,19 +4753,19 @@
         <v>152240</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>138238</v>
+        <v>137932</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>166570</v>
+        <v>166339</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6932877145920857</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6295258816306655</v>
+        <v>0.6281312387366861</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7585447029825537</v>
+        <v>0.7574933693840111</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>311</v>
@@ -4774,19 +4774,19 @@
         <v>327986</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>310331</v>
+        <v>308422</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>345672</v>
+        <v>344947</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.758859067893873</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7180123904292663</v>
+        <v>0.7135949457316445</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7997808588841285</v>
+        <v>0.7981018710723883</v>
       </c>
     </row>
     <row r="21">
@@ -4803,19 +4803,19 @@
         <v>27049</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>18290</v>
+        <v>17879</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>39207</v>
+        <v>38460</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1272169172448279</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.08602223501605734</v>
+        <v>0.08409169026592686</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1844013911035368</v>
+        <v>0.1808867060792095</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>40</v>
@@ -4824,19 +4824,19 @@
         <v>42628</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>31179</v>
+        <v>31066</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>55494</v>
+        <v>55668</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1941226729226538</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1419868539043671</v>
+        <v>0.1414714575086079</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2527172467546836</v>
+        <v>0.2535089416987986</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>64</v>
@@ -4845,19 +4845,19 @@
         <v>69676</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>55585</v>
+        <v>54181</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>87907</v>
+        <v>86760</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1612095005943332</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.128605882107027</v>
+        <v>0.1253588080701677</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2033895569333702</v>
+        <v>0.2007366717782533</v>
       </c>
     </row>
     <row r="22">
@@ -4874,19 +4874,19 @@
         <v>9823</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5275</v>
+        <v>4992</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>17796</v>
+        <v>17547</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04620220214095711</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02480967710636004</v>
+        <v>0.02347920928554436</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08369949523083428</v>
+        <v>0.08252616303110112</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>24</v>
@@ -4895,19 +4895,19 @@
         <v>24724</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>16302</v>
+        <v>15695</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>35556</v>
+        <v>34794</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1125896124852605</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07423837188933394</v>
+        <v>0.0714746767774619</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.161919623351339</v>
+        <v>0.158450629234128</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>33</v>
@@ -4916,19 +4916,19 @@
         <v>34547</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>24433</v>
+        <v>25182</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>47006</v>
+        <v>47851</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07993143151179373</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05652969971088843</v>
+        <v>0.05826302055497388</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1087568429637265</v>
+        <v>0.1107135333035785</v>
       </c>
     </row>
     <row r="23">
@@ -5020,19 +5020,19 @@
         <v>219404</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>206857</v>
+        <v>204673</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>232709</v>
+        <v>230423</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.800800306338416</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.7550032705018893</v>
+        <v>0.7470320191837042</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.8493617359485527</v>
+        <v>0.8410175495895529</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>192</v>
@@ -5041,19 +5041,19 @@
         <v>200202</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>183669</v>
+        <v>183419</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>213712</v>
+        <v>214352</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.7177150835903023</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.6584425177110284</v>
+        <v>0.6575478513667138</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.7661452860458089</v>
+        <v>0.7684392107609564</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>400</v>
@@ -5062,19 +5062,19 @@
         <v>419606</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>399456</v>
+        <v>400699</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>439109</v>
+        <v>440582</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.7588848344910543</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.7224416186144401</v>
+        <v>0.7246901823317928</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.7941560947779004</v>
+        <v>0.7968211068040261</v>
       </c>
     </row>
     <row r="25">
@@ -5091,19 +5091,19 @@
         <v>35830</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>24887</v>
+        <v>26739</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>46871</v>
+        <v>48652</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.130774716388536</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.09083450166984332</v>
+        <v>0.09759462160144018</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1710731044730655</v>
+        <v>0.1775757955582158</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>54</v>
@@ -5112,19 +5112,19 @@
         <v>55729</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>42818</v>
+        <v>43188</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>68889</v>
+        <v>69863</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1997841725489875</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1534989814785042</v>
+        <v>0.1548267159464697</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.246962973630909</v>
+        <v>0.2504568772458216</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>89</v>
@@ -5133,19 +5133,19 @@
         <v>91558</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>74095</v>
+        <v>76460</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>109467</v>
+        <v>110206</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1655891373074571</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1340055299426522</v>
+        <v>0.138283337342661</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1979776586648831</v>
+        <v>0.1993149703161326</v>
       </c>
     </row>
     <row r="26">
@@ -5162,19 +5162,19 @@
         <v>18747</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>11396</v>
+        <v>11533</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>27739</v>
+        <v>27071</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.06842497727304798</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.04159281363595645</v>
+        <v>0.04209560462809186</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1012441966994333</v>
+        <v>0.09880557643782109</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>22</v>
@@ -5183,19 +5183,19 @@
         <v>23013</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>14941</v>
+        <v>15435</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>32983</v>
+        <v>34577</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.08250074386071017</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.05356415304314217</v>
+        <v>0.05533338142494355</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1182412729372461</v>
+        <v>0.123958159793376</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>40</v>
@@ -5204,19 +5204,19 @@
         <v>41760</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>30773</v>
+        <v>29788</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>55964</v>
+        <v>55453</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.07552602820148861</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.05565455588800741</v>
+        <v>0.05387395163742267</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1012138286139041</v>
+        <v>0.1002911719844457</v>
       </c>
     </row>
     <row r="27">
@@ -5308,19 +5308,19 @@
         <v>575503</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>556647</v>
+        <v>555955</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>591571</v>
+        <v>592180</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.8721106690529642</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.8435367037577565</v>
+        <v>0.8424877028771841</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8964591691170126</v>
+        <v>0.8973830796780943</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>478</v>
@@ -5329,19 +5329,19 @@
         <v>518747</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>491546</v>
+        <v>494041</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>540712</v>
+        <v>542361</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.7476329561711491</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.7084297499194232</v>
+        <v>0.7120256540848332</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7792889472592806</v>
+        <v>0.7816660933416589</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1016</v>
@@ -5350,19 +5350,19 @@
         <v>1094251</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1060791</v>
+        <v>1063163</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1121198</v>
+        <v>1125506</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.8083106990764967</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.7835942037985145</v>
+        <v>0.7853465281013206</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8282164312416103</v>
+        <v>0.8313985471403111</v>
       </c>
     </row>
     <row r="29">
@@ -5379,19 +5379,19 @@
         <v>63172</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>49271</v>
+        <v>47636</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>80210</v>
+        <v>79734</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.0957301574273958</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.07466527161285585</v>
+        <v>0.07218668729066857</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1215486961330087</v>
+        <v>0.1208278393743148</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>111</v>
@@ -5400,19 +5400,19 @@
         <v>119802</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>102719</v>
+        <v>98237</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>143145</v>
+        <v>140500</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1726623788729267</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1480415001790163</v>
+        <v>0.1415823434586759</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2063048921628926</v>
+        <v>0.2024927078892662</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>170</v>
@@ -5421,19 +5421,19 @@
         <v>182974</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>156965</v>
+        <v>158572</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>209584</v>
+        <v>209239</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1351610989575311</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1159479484065923</v>
+        <v>0.1171356746020072</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1548173516007567</v>
+        <v>0.1545622785194007</v>
       </c>
     </row>
     <row r="30">
@@ -5450,19 +5450,19 @@
         <v>21222</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>13469</v>
+        <v>13224</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>33584</v>
+        <v>33214</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.03215917351964002</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.02041055228598768</v>
+        <v>0.02003925112960175</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.05089255876764017</v>
+        <v>0.05033285219621916</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>47</v>
@@ -5471,19 +5471,19 @@
         <v>55303</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>40316</v>
+        <v>41119</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>71643</v>
+        <v>72972</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.07970466495592415</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.05810412606591864</v>
+        <v>0.0592616619958394</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1032539308444877</v>
+        <v>0.1051696582976313</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>66</v>
@@ -5492,19 +5492,19 @@
         <v>76525</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>58385</v>
+        <v>59067</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>95747</v>
+        <v>96849</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.05652820196597219</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.04312827984821301</v>
+        <v>0.04363181105347665</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.07072752764826874</v>
+        <v>0.07154110687590085</v>
       </c>
     </row>
     <row r="31">
@@ -5596,19 +5596,19 @@
         <v>653551</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>630573</v>
+        <v>629473</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>674840</v>
+        <v>672124</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8399666116442123</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8104348258827633</v>
+        <v>0.809020675394141</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8673272302102015</v>
+        <v>0.8638371573626499</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>592</v>
@@ -5617,19 +5617,19 @@
         <v>641017</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>615589</v>
+        <v>614431</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>665627</v>
+        <v>665508</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.7780725973698416</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.7472075322314001</v>
+        <v>0.7458012204582611</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.8079439133775781</v>
+        <v>0.8077991084037606</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1198</v>
@@ -5638,19 +5638,19 @@
         <v>1294569</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1261605</v>
+        <v>1261410</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1326192</v>
+        <v>1328928</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.8081350966055316</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.7875578717047658</v>
+        <v>0.7874359291876291</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.827875928848373</v>
+        <v>0.8295839592095877</v>
       </c>
     </row>
     <row r="33">
@@ -5667,19 +5667,19 @@
         <v>99573</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>81215</v>
+        <v>81989</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>120411</v>
+        <v>122296</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.1279743948169109</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1043798997348134</v>
+        <v>0.1053750037273654</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1547568435699645</v>
+        <v>0.1571796070607041</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>115</v>
@@ -5688,19 +5688,19 @@
         <v>127989</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>106079</v>
+        <v>106753</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>150852</v>
+        <v>150421</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.1553546255333851</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1287601688481954</v>
+        <v>0.1295781143816806</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1831054929175806</v>
+        <v>0.1825823230036637</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>203</v>
@@ -5709,19 +5709,19 @@
         <v>227562</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>199522</v>
+        <v>198167</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>256276</v>
+        <v>258257</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1420557924452902</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.1245518968900294</v>
+        <v>0.1237058403109483</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1599807026666494</v>
+        <v>0.1612173713888586</v>
       </c>
     </row>
     <row r="34">
@@ -5738,19 +5738,19 @@
         <v>24944</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>15894</v>
+        <v>16346</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>38645</v>
+        <v>37015</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.0320589935388768</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.02042807479321504</v>
+        <v>0.02100849013069845</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.04966795730201989</v>
+        <v>0.04757278163651153</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>50</v>
@@ -5759,19 +5759,19 @@
         <v>54846</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>42175</v>
+        <v>41490</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>71908</v>
+        <v>70624</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.06657277709677328</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.0511927198818669</v>
+        <v>0.05036039678895325</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.08728282348171167</v>
+        <v>0.08572449557447698</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>72</v>
@@ -5780,19 +5780,19 @@
         <v>79790</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>62629</v>
+        <v>63713</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>99237</v>
+        <v>100279</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.04980911094917823</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.03909641588975267</v>
+        <v>0.03977302785160824</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.06194890298962266</v>
+        <v>0.06259910707752904</v>
       </c>
     </row>
     <row r="35">
@@ -5884,19 +5884,19 @@
         <v>2890095</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2839362</v>
+        <v>2844867</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2930323</v>
+        <v>2934924</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.8443513784317306</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.8295297185078827</v>
+        <v>0.8311378268356843</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.856104136195989</v>
+        <v>0.8574484261680407</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>2450</v>
@@ -5905,19 +5905,19 @@
         <v>2641507</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>2584398</v>
+        <v>2587145</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>2691586</v>
+        <v>2693581</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.7425758628806821</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.7265213026893117</v>
+        <v>0.7272935880794191</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.7566538815760255</v>
+        <v>0.7572148888348926</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>5172</v>
@@ -5926,19 +5926,19 @@
         <v>5531602</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>5460491</v>
+        <v>5458446</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>5600391</v>
+        <v>5600398</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.7924840499506303</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.7822963030503671</v>
+        <v>0.7820033334956383</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.8023390240246184</v>
+        <v>0.8023400758083193</v>
       </c>
     </row>
     <row r="37">
@@ -5955,19 +5955,19 @@
         <v>359252</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>326360</v>
+        <v>325830</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>401098</v>
+        <v>399047</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1049567856783047</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.0953473225713509</v>
+        <v>0.09519229188474181</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1171821397780042</v>
+        <v>0.1165830670688699</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>527</v>
@@ -5976,19 +5976,19 @@
         <v>568396</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>525935</v>
+        <v>521916</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>614640</v>
+        <v>611462</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1597863540117364</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.147850051398077</v>
+        <v>0.1467201589052212</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1727864724394116</v>
+        <v>0.1718932588259378</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>857</v>
@@ -5997,19 +5997,19 @@
         <v>927648</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>867563</v>
+        <v>871267</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>986821</v>
+        <v>987594</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1328992944028183</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1242912022696451</v>
+        <v>0.124821860789994</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1413767168770523</v>
+        <v>0.1414875067593525</v>
       </c>
     </row>
     <row r="38">
@@ -6026,19 +6026,19 @@
         <v>173511</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>148052</v>
+        <v>147218</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>202711</v>
+        <v>204417</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.05069183588996463</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.04325396004952008</v>
+        <v>0.04301032426725687</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.05922276391902105</v>
+        <v>0.05972123019826233</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>320</v>
@@ -6047,19 +6047,19 @@
         <v>347319</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>313163</v>
+        <v>312941</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>385611</v>
+        <v>388070</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.09763778310758152</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.08803581026373984</v>
+        <v>0.08797344415561011</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.108402250726342</v>
+        <v>0.1090935101832747</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>474</v>
@@ -6068,19 +6068,19 @@
         <v>520830</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>478425</v>
+        <v>478854</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>569106</v>
+        <v>567199</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.07461665564655146</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.06854146455977012</v>
+        <v>0.06860291830463881</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.08153287012460592</v>
+        <v>0.08125967647363407</v>
       </c>
     </row>
     <row r="39">
@@ -6416,19 +6416,19 @@
         <v>241026</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>227155</v>
+        <v>225279</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>255540</v>
+        <v>253768</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8204830207239745</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7732660244355276</v>
+        <v>0.7668777066923439</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8698896046379292</v>
+        <v>0.8638583737457959</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>207</v>
@@ -6437,19 +6437,19 @@
         <v>210922</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>195504</v>
+        <v>193017</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>225989</v>
+        <v>224289</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7305852916883738</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6771793845932187</v>
+        <v>0.6685644935226669</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7827725023347066</v>
+        <v>0.7768853958625912</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>424</v>
@@ -6458,19 +6458,19 @@
         <v>451948</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>429248</v>
+        <v>429560</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>470869</v>
+        <v>471272</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7759244831624242</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.736952156383385</v>
+        <v>0.7374878841953549</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8084090842993282</v>
+        <v>0.8091005332905569</v>
       </c>
     </row>
     <row r="5">
@@ -6487,19 +6487,19 @@
         <v>31653</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>21119</v>
+        <v>22077</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>43198</v>
+        <v>44895</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.10775243282528</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0718918147508706</v>
+        <v>0.07515379464535685</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1470520833414317</v>
+        <v>0.1528286361028627</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>28</v>
@@ -6508,19 +6508,19 @@
         <v>30756</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>21417</v>
+        <v>21280</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>43178</v>
+        <v>43122</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.106530090233302</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07418245650681805</v>
+        <v>0.07370984995999012</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1495601116001822</v>
+        <v>0.1493657291810043</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>56</v>
@@ -6529,19 +6529,19 @@
         <v>62409</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>48343</v>
+        <v>47460</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>81316</v>
+        <v>78089</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1071465688186802</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08299808515079918</v>
+        <v>0.08148153698808891</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1396072593136745</v>
+        <v>0.1340670829025679</v>
       </c>
     </row>
     <row r="6">
@@ -6558,19 +6558,19 @@
         <v>21082</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13380</v>
+        <v>13146</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>31861</v>
+        <v>30542</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.07176454645074545</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04554747865647117</v>
+        <v>0.04475004478383938</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1084586011764781</v>
+        <v>0.1039696225649924</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>42</v>
@@ -6579,19 +6579,19 @@
         <v>47025</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>35384</v>
+        <v>34829</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>60659</v>
+        <v>60916</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1628846180783241</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1225629893658027</v>
+        <v>0.1206391076196876</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2101090688881292</v>
+        <v>0.2109996526186575</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>63</v>
@@ -6600,19 +6600,19 @@
         <v>68107</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>52207</v>
+        <v>53805</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>85916</v>
+        <v>85598</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1169289480188956</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.08963163706709976</v>
+        <v>0.09237493807421354</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1475039462536291</v>
+        <v>0.1469585768012976</v>
       </c>
     </row>
     <row r="7">
@@ -6704,19 +6704,19 @@
         <v>443180</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>426618</v>
+        <v>427140</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>455374</v>
+        <v>457159</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8818194208300588</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8488646886136785</v>
+        <v>0.8499034247336316</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9060813451706976</v>
+        <v>0.9096337291164102</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>388</v>
@@ -6725,19 +6725,19 @@
         <v>410445</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>390353</v>
+        <v>390827</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>429243</v>
+        <v>429686</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7846639026836132</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7462524802633422</v>
+        <v>0.747159076389304</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8206011164882607</v>
+        <v>0.8214473245775291</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>805</v>
@@ -6746,19 +6746,19 @@
         <v>853626</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>828378</v>
+        <v>828340</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>878030</v>
+        <v>876552</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8322703220163917</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8076543418681684</v>
+        <v>0.8076169164470376</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.856064494111853</v>
+        <v>0.8546233953110046</v>
       </c>
     </row>
     <row r="9">
@@ -6775,19 +6775,19 @@
         <v>38995</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>28428</v>
+        <v>28721</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>53592</v>
+        <v>53666</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0775898242453274</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.05656481938424742</v>
+        <v>0.05714793720014854</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1066342545078576</v>
+        <v>0.1067820905400149</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>59</v>
@@ -6796,19 +6796,19 @@
         <v>68382</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>54596</v>
+        <v>52889</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>85338</v>
+        <v>85132</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1307289729956412</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1043737446145403</v>
+        <v>0.1011094549926061</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1631444759085752</v>
+        <v>0.1627504746218022</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>97</v>
@@ -6817,19 +6817,19 @@
         <v>107377</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>87215</v>
+        <v>89689</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>127384</v>
+        <v>131264</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1046906722726587</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.08503344921445498</v>
+        <v>0.08744572335935749</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.124197203119247</v>
+        <v>0.127980577398715</v>
       </c>
     </row>
     <row r="10">
@@ -6846,19 +6846,19 @@
         <v>20400</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12605</v>
+        <v>13389</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>30718</v>
+        <v>30499</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04059075492461381</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02508019335141689</v>
+        <v>0.02663990739598477</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06112221822969616</v>
+        <v>0.06068549973593782</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>37</v>
@@ -6867,19 +6867,19 @@
         <v>44257</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>31353</v>
+        <v>32233</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>58484</v>
+        <v>59815</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08460712432074571</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05993844195711416</v>
+        <v>0.06162150075937798</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1118054720776228</v>
+        <v>0.1143497919177921</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>57</v>
@@ -6888,19 +6888,19 @@
         <v>64657</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>47768</v>
+        <v>49026</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>81751</v>
+        <v>83521</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06303900571094963</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04657331710030836</v>
+        <v>0.04779955673100061</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07970538655487126</v>
+        <v>0.08143125367379737</v>
       </c>
     </row>
     <row r="11">
@@ -6992,19 +6992,19 @@
         <v>277193</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>265019</v>
+        <v>264741</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>288081</v>
+        <v>286555</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8701285614032023</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8319141635584166</v>
+        <v>0.8310431949802846</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9043080480168486</v>
+        <v>0.8995169615905343</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>277</v>
@@ -7013,19 +7013,19 @@
         <v>272636</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>255860</v>
+        <v>255589</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>287300</v>
+        <v>286574</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8106710430382396</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7607881846451019</v>
+        <v>0.7599841096037784</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.854274775391625</v>
+        <v>0.852114739186684</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>564</v>
@@ -7034,19 +7034,19 @@
         <v>549828</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>529106</v>
+        <v>530287</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>567323</v>
+        <v>567939</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8395942927122086</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8079506938487719</v>
+        <v>0.8097536133151272</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8663082779892396</v>
+        <v>0.8672493018328749</v>
       </c>
     </row>
     <row r="13">
@@ -7063,19 +7063,19 @@
         <v>34258</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>25164</v>
+        <v>26046</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>46276</v>
+        <v>46517</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1075391169758824</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07899267548077792</v>
+        <v>0.08176052749141327</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1452631735204896</v>
+        <v>0.1460216092801748</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>40</v>
@@ -7084,19 +7084,19 @@
         <v>45474</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>32633</v>
+        <v>33300</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>60150</v>
+        <v>61042</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.135216391069943</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09703375473812208</v>
+        <v>0.09901470699454118</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1788544006921506</v>
+        <v>0.1815063586826988</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>80</v>
@@ -7105,19 +7105,19 @@
         <v>79733</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>65437</v>
+        <v>64122</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>99095</v>
+        <v>97200</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1217527159800469</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0999232122672155</v>
+        <v>0.0979157226103894</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1513190779068194</v>
+        <v>0.1484247977134269</v>
       </c>
     </row>
     <row r="14">
@@ -7134,19 +7134,19 @@
         <v>7114</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2865</v>
+        <v>3341</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>13664</v>
+        <v>13718</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02233232162091532</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.008994244249679442</v>
+        <v>0.01048858092855203</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0428909711486246</v>
+        <v>0.04306283459849878</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>15</v>
@@ -7155,19 +7155,19 @@
         <v>18199</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>10469</v>
+        <v>10311</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>29312</v>
+        <v>28819</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.05411256589181745</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03112962083873329</v>
+        <v>0.03066037072265948</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.08715866444563014</v>
+        <v>0.08569267865348712</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>23</v>
@@ -7176,19 +7176,19 @@
         <v>25313</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>16401</v>
+        <v>16611</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>37801</v>
+        <v>37513</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03865299130774452</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02504405818760263</v>
+        <v>0.02536580788601168</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05772255263955305</v>
+        <v>0.05728347493503224</v>
       </c>
     </row>
     <row r="15">
@@ -7280,19 +7280,19 @@
         <v>313886</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>299101</v>
+        <v>298676</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>326815</v>
+        <v>326601</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8484225222469197</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8084586767845836</v>
+        <v>0.8073097864235291</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8833704269182652</v>
+        <v>0.882790144300124</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>271</v>
@@ -7301,19 +7301,19 @@
         <v>284569</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>265924</v>
+        <v>264821</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>301738</v>
+        <v>301643</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7347835311975041</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6866396563386167</v>
+        <v>0.683791652230645</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7791138373254849</v>
+        <v>0.7788690754236498</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>569</v>
@@ -7322,19 +7322,19 @@
         <v>598455</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>574300</v>
+        <v>572796</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>620280</v>
+        <v>620744</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7903035075484154</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7584054116115535</v>
+        <v>0.7564190215484198</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.819125418484015</v>
+        <v>0.8197379298429602</v>
       </c>
     </row>
     <row r="17">
@@ -7351,19 +7351,19 @@
         <v>27864</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>19004</v>
+        <v>18749</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>39720</v>
+        <v>39056</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07531606698930533</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05136796036043063</v>
+        <v>0.05067708747172144</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1073608168131364</v>
+        <v>0.1055660178018746</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>42</v>
@@ -7372,19 +7372,19 @@
         <v>47966</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>35736</v>
+        <v>36615</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>62219</v>
+        <v>63002</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1238518216865967</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09227361674142613</v>
+        <v>0.09454233966841455</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1606551995336371</v>
+        <v>0.1626769183221412</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>70</v>
@@ -7393,19 +7393,19 @@
         <v>75830</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>61055</v>
+        <v>59890</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>94860</v>
+        <v>93880</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1001389751707783</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08062803354587128</v>
+        <v>0.0790897779540112</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1252692726229543</v>
+        <v>0.1239748587205482</v>
       </c>
     </row>
     <row r="18">
@@ -7422,19 +7422,19 @@
         <v>28214</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>19153</v>
+        <v>18625</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>39974</v>
+        <v>39474</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.076261410763775</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.05177059587173212</v>
+        <v>0.05034150142928186</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1080491279672834</v>
+        <v>0.1066955959497714</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>45</v>
@@ -7443,19 +7443,19 @@
         <v>54748</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>40864</v>
+        <v>42163</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>70566</v>
+        <v>71781</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1413646471158993</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1055137598245436</v>
+        <v>0.1088676164409791</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1822074528579999</v>
+        <v>0.1853455954401146</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>73</v>
@@ -7464,19 +7464,19 @@
         <v>82962</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>65630</v>
+        <v>67993</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>104737</v>
+        <v>106438</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1095575172808063</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.08666891340100905</v>
+        <v>0.08978943465510061</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1383125303949591</v>
+        <v>0.1405585812431805</v>
       </c>
     </row>
     <row r="19">
@@ -7568,19 +7568,19 @@
         <v>184478</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>174336</v>
+        <v>174183</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>192663</v>
+        <v>193113</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8733886298310526</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8253732718604745</v>
+        <v>0.8246467553981687</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9121412611890861</v>
+        <v>0.9142676686576989</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>178</v>
@@ -7589,19 +7589,19 @@
         <v>170923</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>158108</v>
+        <v>157745</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>183499</v>
+        <v>181807</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7819459122629686</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7233165981368206</v>
+        <v>0.7216589149620783</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.839478551062019</v>
+        <v>0.8317367311677955</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>362</v>
@@ -7610,19 +7610,19 @@
         <v>355401</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>338760</v>
+        <v>337461</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>369886</v>
+        <v>369047</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8268837034778198</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7881657501310324</v>
+        <v>0.7851425431925598</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8605840649641761</v>
+        <v>0.8586312878666571</v>
       </c>
     </row>
     <row r="21">
@@ -7639,19 +7639,19 @@
         <v>23012</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>15535</v>
+        <v>15268</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>32144</v>
+        <v>32402</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1089467554317071</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.07355047464230366</v>
+        <v>0.07228390058057399</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1521796354336207</v>
+        <v>0.1534027470446417</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>38</v>
@@ -7660,19 +7660,19 @@
         <v>39900</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>29045</v>
+        <v>30027</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>51874</v>
+        <v>52817</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1825376141005551</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1328780070212169</v>
+        <v>0.1373692863101286</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2373156507324093</v>
+        <v>0.2416275794552075</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>62</v>
@@ -7681,19 +7681,19 @@
         <v>62912</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>48690</v>
+        <v>49466</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>76953</v>
+        <v>79349</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1463727807476961</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1132831381545608</v>
+        <v>0.1150889650323176</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1790401897558394</v>
+        <v>0.1846150815997647</v>
       </c>
     </row>
     <row r="22">
@@ -7710,19 +7710,19 @@
         <v>3731</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>8532</v>
+        <v>9405</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01766461473724026</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.004463421797133352</v>
+        <v>0.004462087420369499</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04039429179348349</v>
+        <v>0.04452855042062839</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>7</v>
@@ -7731,19 +7731,19 @@
         <v>7763</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3350</v>
+        <v>3264</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>14858</v>
+        <v>15394</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03551647363647633</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01532735023563883</v>
+        <v>0.01493118761469753</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06797323565210937</v>
+        <v>0.07042386539190242</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>11</v>
@@ -7752,19 +7752,19 @@
         <v>11495</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6099</v>
+        <v>6083</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>19563</v>
+        <v>20031</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02674351577448415</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01419025086463961</v>
+        <v>0.01415359438975777</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04551493367236557</v>
+        <v>0.04660498755616586</v>
       </c>
     </row>
     <row r="23">
@@ -7856,19 +7856,19 @@
         <v>209315</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>195318</v>
+        <v>194300</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>222175</v>
+        <v>222012</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.7955024069127026</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.7423074314155899</v>
+        <v>0.7384363191819863</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.8443777668182328</v>
+        <v>0.843759013477282</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>190</v>
@@ -7877,19 +7877,19 @@
         <v>190531</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>172862</v>
+        <v>173188</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>205075</v>
+        <v>206447</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.69762327552436</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.6329281833222198</v>
+        <v>0.6341195964208156</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.750875370124924</v>
+        <v>0.7558977814572413</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>394</v>
@@ -7898,19 +7898,19 @@
         <v>399846</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>376143</v>
+        <v>379329</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>420179</v>
+        <v>420634</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.7456509248639265</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.701448478055912</v>
+        <v>0.7073891538995138</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.7835682710767213</v>
+        <v>0.7844159597624164</v>
       </c>
     </row>
     <row r="25">
@@ -7927,19 +7927,19 @@
         <v>26423</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>17814</v>
+        <v>17555</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>37359</v>
+        <v>37419</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1004217066949722</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06770298914561487</v>
+        <v>0.06671717399415497</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1419846561598606</v>
+        <v>0.1422105861954414</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>46</v>
@@ -7948,19 +7948,19 @@
         <v>49901</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>37253</v>
+        <v>37364</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>63471</v>
+        <v>63674</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1827110894250975</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1364020433114543</v>
+        <v>0.13680782422295</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2323960873037735</v>
+        <v>0.2331396082398638</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>73</v>
@@ -7969,19 +7969,19 @@
         <v>76324</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>61159</v>
+        <v>61675</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>94276</v>
+        <v>92925</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1423330684713629</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1140516061752552</v>
+        <v>0.1150136335559671</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1758103876601862</v>
+        <v>0.1732915198122674</v>
       </c>
     </row>
     <row r="26">
@@ -7998,19 +7998,19 @@
         <v>27385</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>18307</v>
+        <v>18281</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>37515</v>
+        <v>38891</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1040758863923253</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.06957684287988575</v>
+        <v>0.06947651416324509</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1425754793381703</v>
+        <v>0.1478035787554864</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>27</v>
@@ -8019,19 +8019,19 @@
         <v>32682</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>22255</v>
+        <v>22302</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>47453</v>
+        <v>45928</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1196656350505425</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.08148588759144337</v>
+        <v>0.08165966864286342</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1737462109967568</v>
+        <v>0.1681628906468431</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>55</v>
@@ -8040,19 +8040,19 @@
         <v>60067</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>45416</v>
+        <v>46287</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>75405</v>
+        <v>76413</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1120160066647106</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.08469355370112673</v>
+        <v>0.08631743999809009</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.140617931106488</v>
+        <v>0.142498117385587</v>
       </c>
     </row>
     <row r="27">
@@ -8144,19 +8144,19 @@
         <v>549900</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>529731</v>
+        <v>530519</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>568245</v>
+        <v>568441</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.8375501253191138</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.8068305718833592</v>
+        <v>0.8080312745098926</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8654907786283055</v>
+        <v>0.8657888721908009</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>506</v>
@@ -8165,19 +8165,19 @@
         <v>531153</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>507334</v>
+        <v>508742</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>553992</v>
+        <v>553549</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.7683465847034306</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.7338898861433717</v>
+        <v>0.7359277864190921</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8013837220021964</v>
+        <v>0.8007435510687059</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>988</v>
@@ -8186,19 +8186,19 @@
         <v>1081054</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1047417</v>
+        <v>1048792</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1110025</v>
+        <v>1108846</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.8020566197070956</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.7771010661989366</v>
+        <v>0.7781208069065471</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8235514651268497</v>
+        <v>0.8226763028561495</v>
       </c>
     </row>
     <row r="29">
@@ -8215,19 +8215,19 @@
         <v>79277</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>62987</v>
+        <v>63809</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>99685</v>
+        <v>99205</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1207467172891382</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.09593461000387242</v>
+        <v>0.09718657044229573</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1518291021264298</v>
+        <v>0.1510991207711386</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>84</v>
@@ -8236,19 +8236,19 @@
         <v>93793</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>75119</v>
+        <v>77408</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>112183</v>
+        <v>113847</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1356769850976804</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1086648961634092</v>
+        <v>0.111975421833931</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.16228012339379</v>
+        <v>0.1646864428645412</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>155</v>
@@ -8257,19 +8257,19 @@
         <v>173070</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>148769</v>
+        <v>149246</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>199824</v>
+        <v>199635</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1284042379815308</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.11037459586068</v>
+        <v>0.1107285735196254</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1482538767453786</v>
+        <v>0.1481136944575784</v>
       </c>
     </row>
     <row r="30">
@@ -8286,19 +8286,19 @@
         <v>27381</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>17871</v>
+        <v>18660</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>38975</v>
+        <v>39556</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.04170315739174805</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.02721916689464257</v>
+        <v>0.02842102350348957</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.05936312175241006</v>
+        <v>0.06024776141199838</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>56</v>
@@ -8307,19 +8307,19 @@
         <v>66348</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>50251</v>
+        <v>51195</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>84325</v>
+        <v>84380</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.09597643019888899</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.07269173748553623</v>
+        <v>0.07405740553441273</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1219811625162313</v>
+        <v>0.1220608283246893</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>83</v>
@@ -8328,19 +8328,19 @@
         <v>93728</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>74529</v>
+        <v>75152</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>113422</v>
+        <v>115300</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.06953914231137352</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.05529490608481637</v>
+        <v>0.05575682297623822</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.08415024458803383</v>
+        <v>0.0855435843876354</v>
       </c>
     </row>
     <row r="31">
@@ -8432,19 +8432,19 @@
         <v>683391</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>664409</v>
+        <v>663446</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>700022</v>
+        <v>701387</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8777373206642249</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8533568177501549</v>
+        <v>0.8521204024948024</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.899097350462986</v>
+        <v>0.9008502499092983</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>621</v>
@@ -8453,19 +8453,19 @@
         <v>664690</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>639857</v>
+        <v>637427</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>688880</v>
+        <v>687134</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.8045466766593654</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.7744884253906491</v>
+        <v>0.7715471267733365</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.8338261049243839</v>
+        <v>0.8317137906054464</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1275</v>
@@ -8474,19 +8474,19 @@
         <v>1348081</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1315767</v>
+        <v>1317029</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1379002</v>
+        <v>1380025</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.8400568751261844</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.81992034144259</v>
+        <v>0.8207066984235263</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8593253374092726</v>
+        <v>0.8599624160798744</v>
       </c>
     </row>
     <row r="33">
@@ -8503,19 +8503,19 @@
         <v>77032</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>61475</v>
+        <v>61587</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>95356</v>
+        <v>94689</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.09893934316239569</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.07895796146076019</v>
+        <v>0.07910134488446863</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1224736339755645</v>
+        <v>0.1216165173676111</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>98</v>
@@ -8524,19 +8524,19 @@
         <v>116971</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>96912</v>
+        <v>95663</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>138864</v>
+        <v>140156</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.1415829273382288</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1173036156103168</v>
+        <v>0.115791663281662</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1680827709853154</v>
+        <v>0.1696463428032352</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>175</v>
@@ -8545,19 +8545,19 @@
         <v>194004</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>165920</v>
+        <v>165958</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>220106</v>
+        <v>221590</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1208933684743965</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.1033931475673733</v>
+        <v>0.1034168042398666</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1371593535292557</v>
+        <v>0.1380840275013202</v>
       </c>
     </row>
     <row r="34">
@@ -8574,19 +8574,19 @@
         <v>18159</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>11436</v>
+        <v>11697</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>28163</v>
+        <v>29060</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.02332333617337936</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.01468826950938371</v>
+        <v>0.01502313480252688</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.03617220340501941</v>
+        <v>0.03732432603449098</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>36</v>
@@ -8595,19 +8595,19 @@
         <v>44506</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>31240</v>
+        <v>31981</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>59972</v>
+        <v>59676</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.05387039600240574</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.0378127832696055</v>
+        <v>0.03870979611360244</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.07259121174180062</v>
+        <v>0.07223248041348465</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>55</v>
@@ -8616,19 +8616,19 @@
         <v>62665</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>47685</v>
+        <v>48388</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>82197</v>
+        <v>81218</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.03904975639941908</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.02971484147310045</v>
+        <v>0.03015317237979641</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.05122100753564233</v>
+        <v>0.05061119132262772</v>
       </c>
     </row>
     <row r="35">
@@ -8720,19 +8720,19 @@
         <v>2902369</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2860420</v>
+        <v>2862299</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2939974</v>
+        <v>2945289</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.8550589079546544</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.8427003764702868</v>
+        <v>0.8432539272868561</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.8661376227914527</v>
+        <v>0.867703321059848</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>2638</v>
@@ -8741,19 +8741,19 @@
         <v>2735870</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>2680313</v>
+        <v>2680741</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>2785981</v>
+        <v>2787744</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.7718543966495656</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.7561804124383764</v>
+        <v>0.7563011812251251</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.78599191134194</v>
+        <v>0.7864892547902586</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>5381</v>
@@ -8762,19 +8762,19 @@
         <v>5638240</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>5561992</v>
+        <v>5574156</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>5707602</v>
+        <v>5699500</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.8125561754888548</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.8015677803613322</v>
+        <v>0.8033206914231311</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.8225523288290474</v>
+        <v>0.8213847627301901</v>
       </c>
     </row>
     <row r="37">
@@ -8791,19 +8791,19 @@
         <v>338515</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>305515</v>
+        <v>301612</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>372894</v>
+        <v>369463</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.09972908200922199</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.0900068734206806</v>
+        <v>0.08885718730308217</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1098571376348158</v>
+        <v>0.1088463657783749</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>435</v>
@@ -8812,19 +8812,19 @@
         <v>493143</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>451000</v>
+        <v>450519</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>535709</v>
+        <v>536279</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1391275097624734</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1272378499372078</v>
+        <v>0.1271021192325514</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.15113644720227</v>
+        <v>0.1512971986689866</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>768</v>
@@ -8833,19 +8833,19 @@
         <v>831659</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>772408</v>
+        <v>782435</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>889318</v>
+        <v>890430</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1198546834712567</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1113157445237743</v>
+        <v>0.1127607649094657</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1281642044705454</v>
+        <v>0.1283245410275888</v>
       </c>
     </row>
     <row r="38">
@@ -8862,19 +8862,19 @@
         <v>153465</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>132013</v>
+        <v>130121</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>177799</v>
+        <v>178451</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.04521201003612353</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.03889201442796119</v>
+        <v>0.03833458155302107</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.05238076784380474</v>
+        <v>0.05257305512177721</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>265</v>
@@ -8883,19 +8883,19 @@
         <v>315528</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>278627</v>
+        <v>279887</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>353167</v>
+        <v>353841</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.08901809358796106</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.07860739277128737</v>
+        <v>0.07896272088723456</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.09963672340188601</v>
+        <v>0.09982690878313934</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>420</v>
@@ -8904,19 +8904,19 @@
         <v>468994</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>426209</v>
+        <v>428489</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>515048</v>
+        <v>511578</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.06758914103988845</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.0614232667102149</v>
+        <v>0.06175176471516139</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.07422626316258248</v>
+        <v>0.07372612211163232</v>
       </c>
     </row>
     <row r="39">
@@ -9252,19 +9252,19 @@
         <v>273557</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>262033</v>
+        <v>260380</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>284873</v>
+        <v>283638</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.8579625434420716</v>
+        <v>0.8579625434420718</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8218208787636784</v>
+        <v>0.8166348046713069</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8934525538064302</v>
+        <v>0.8895793748082954</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>422</v>
@@ -9273,19 +9273,19 @@
         <v>257725</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>247360</v>
+        <v>247252</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>267601</v>
+        <v>267205</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8154278089633397</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7826353024281886</v>
+        <v>0.7822909414680473</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8466746508709558</v>
+        <v>0.8454230050305541</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>696</v>
@@ -9294,19 +9294,19 @@
         <v>531282</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>516389</v>
+        <v>516435</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>543814</v>
+        <v>546105</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8367884528902679</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8133320230278911</v>
+        <v>0.8134040122921817</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8565269222950711</v>
+        <v>0.8601346920859848</v>
       </c>
     </row>
     <row r="5">
@@ -9323,19 +9323,19 @@
         <v>38756</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>28620</v>
+        <v>28936</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>50568</v>
+        <v>51464</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1215508304310678</v>
+        <v>0.1215508304310679</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08976298848389841</v>
+        <v>0.09075256601017101</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1585968688896056</v>
+        <v>0.1614086392093629</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>92</v>
@@ -9344,19 +9344,19 @@
         <v>45556</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>37102</v>
+        <v>37362</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>54600</v>
+        <v>55532</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1441359233669572</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1173875412430131</v>
+        <v>0.1182101843537223</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1727527125551671</v>
+        <v>0.1757012673255568</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>140</v>
@@ -9365,19 +9365,19 @@
         <v>84312</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>72804</v>
+        <v>71358</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>99953</v>
+        <v>98954</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1327938488442789</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.114668690022596</v>
+        <v>0.1123921202640838</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1574301076978139</v>
+        <v>0.1558563403491504</v>
       </c>
     </row>
     <row r="6">
@@ -9394,19 +9394,19 @@
         <v>6532</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3252</v>
+        <v>2977</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12037</v>
+        <v>11915</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02048662612686042</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01020003330382754</v>
+        <v>0.009338269617294791</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03775086423092947</v>
+        <v>0.0373707396417615</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>24</v>
@@ -9415,19 +9415,19 @@
         <v>12780</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>8789</v>
+        <v>8254</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>19582</v>
+        <v>18319</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.04043626766970317</v>
+        <v>0.04043626766970318</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02780752233365126</v>
+        <v>0.02611476495979603</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.06195511410033353</v>
+        <v>0.05796053211091248</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>33</v>
@@ -9436,19 +9436,19 @@
         <v>19312</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>13328</v>
+        <v>13386</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>26549</v>
+        <v>27707</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.03041769826545327</v>
+        <v>0.03041769826545328</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02099262965097476</v>
+        <v>0.02108307490739182</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04181513311353598</v>
+        <v>0.04363988443899393</v>
       </c>
     </row>
     <row r="7">
@@ -9540,19 +9540,19 @@
         <v>432034</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>412475</v>
+        <v>410961</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>451498</v>
+        <v>449446</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8141639600064259</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7773066254769354</v>
+        <v>0.7744519329798309</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8508437493748653</v>
+        <v>0.8469777375170061</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>508</v>
@@ -9561,19 +9561,19 @@
         <v>412379</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>394653</v>
+        <v>395046</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>427714</v>
+        <v>428118</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7545906662629713</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7221540783624782</v>
+        <v>0.7228740569111116</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.782650549073814</v>
+        <v>0.783389871965523</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>799</v>
@@ -9582,19 +9582,19 @@
         <v>844413</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>818568</v>
+        <v>817836</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>868242</v>
+        <v>869763</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7839390799154277</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7599448077431805</v>
+        <v>0.7592658241894675</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8060612636942729</v>
+        <v>0.8074738912859855</v>
       </c>
     </row>
     <row r="9">
@@ -9611,19 +9611,19 @@
         <v>79850</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>64337</v>
+        <v>63852</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>99776</v>
+        <v>99419</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1504760754701061</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1212429217951262</v>
+        <v>0.1203276598227384</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1880263824941081</v>
+        <v>0.1873546338826113</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>138</v>
@@ -9632,19 +9632,19 @@
         <v>87960</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>75370</v>
+        <v>75666</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>102418</v>
+        <v>101454</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1609526101780775</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1379146621248726</v>
+        <v>0.1384571376101726</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1874093541758134</v>
+        <v>0.1856452192875828</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>211</v>
@@ -9653,19 +9653,19 @@
         <v>167809</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>147585</v>
+        <v>144690</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>191338</v>
+        <v>189717</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1557914103361158</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1370151743349221</v>
+        <v>0.134328252311685</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1776350065997953</v>
+        <v>0.1761303009971593</v>
       </c>
     </row>
     <row r="10">
@@ -9682,19 +9682,19 @@
         <v>18764</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11579</v>
+        <v>11290</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>29841</v>
+        <v>29437</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.035359964523468</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02181963398202141</v>
+        <v>0.02127645289364137</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05623419474448337</v>
+        <v>0.05547357951816995</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>71</v>
@@ -9703,19 +9703,19 @@
         <v>46155</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>36996</v>
+        <v>36626</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>57362</v>
+        <v>56447</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08445672355895108</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06769775418776779</v>
+        <v>0.06701908497867658</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1049629670443796</v>
+        <v>0.1032898461381538</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>89</v>
@@ -9724,19 +9724,19 @@
         <v>64919</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>51052</v>
+        <v>52828</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>79180</v>
+        <v>81401</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06026950974845673</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04739599073278911</v>
+        <v>0.04904462757059913</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07350925059845941</v>
+        <v>0.07557178786089079</v>
       </c>
     </row>
     <row r="11">
@@ -9828,19 +9828,19 @@
         <v>271688</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>260179</v>
+        <v>260080</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>280786</v>
+        <v>280394</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.8597921383281647</v>
+        <v>0.8597921383281648</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8233702112981501</v>
+        <v>0.8230547680079835</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8885833481416595</v>
+        <v>0.8873412907056671</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>407</v>
@@ -9849,19 +9849,19 @@
         <v>287067</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>274743</v>
+        <v>274717</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>297341</v>
+        <v>297447</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8068087430275861</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7721718031317865</v>
+        <v>0.7720993700738266</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8356859722431316</v>
+        <v>0.8359818699844601</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>701</v>
@@ -9870,19 +9870,19 @@
         <v>558755</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>542947</v>
+        <v>542532</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>575397</v>
+        <v>574066</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8317305120221343</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8081996731354711</v>
+        <v>0.8075814407244681</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8565030458086654</v>
+        <v>0.8545224123843406</v>
       </c>
     </row>
     <row r="13">
@@ -9899,19 +9899,19 @@
         <v>19697</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>13302</v>
+        <v>13957</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>27820</v>
+        <v>30001</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06233509585632568</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04209678358656717</v>
+        <v>0.04416983413474219</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08803994400961072</v>
+        <v>0.09494350394431263</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>74</v>
@@ -9920,19 +9920,19 @@
         <v>40788</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>32523</v>
+        <v>32388</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>50625</v>
+        <v>50103</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1146361717683784</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09140783240570444</v>
+        <v>0.09102612885644494</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1422820854450387</v>
+        <v>0.140816637548925</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>102</v>
@@ -9941,19 +9941,19 @@
         <v>60486</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>48794</v>
+        <v>49788</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>72437</v>
+        <v>73636</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.09003534494986244</v>
+        <v>0.09003534494986243</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07263190159121531</v>
+        <v>0.07411120535118516</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1078248915285834</v>
+        <v>0.1096098182801996</v>
       </c>
     </row>
     <row r="14">
@@ -9970,19 +9970,19 @@
         <v>24607</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>17347</v>
+        <v>17812</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>33146</v>
+        <v>32434</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.07787276581550957</v>
+        <v>0.07787276581550955</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05489680749368784</v>
+        <v>0.05636919669562305</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1048941249503147</v>
+        <v>0.1026412166975063</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>54</v>
@@ -9991,19 +9991,19 @@
         <v>27950</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>21373</v>
+        <v>20875</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>36737</v>
+        <v>36386</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.07855508520403558</v>
+        <v>0.07855508520403559</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06006805921091129</v>
+        <v>0.05866987596270437</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1032513967910491</v>
+        <v>0.1022644994652957</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>92</v>
@@ -10012,19 +10012,19 @@
         <v>52558</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>42057</v>
+        <v>43072</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>64158</v>
+        <v>64666</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.07823414302800329</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.06260364117065856</v>
+        <v>0.06411391851895677</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0955020974582094</v>
+        <v>0.09625867334824124</v>
       </c>
     </row>
     <row r="15">
@@ -10116,19 +10116,19 @@
         <v>308795</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>290348</v>
+        <v>291264</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>322233</v>
+        <v>323120</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8275457539831139</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7781110040782607</v>
+        <v>0.7805640343825184</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8635608240184249</v>
+        <v>0.8659377693459376</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>415</v>
@@ -10137,19 +10137,19 @@
         <v>332470</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>318963</v>
+        <v>318699</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>346072</v>
+        <v>345109</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.787916878618508</v>
+        <v>0.7879168786185078</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7559061021406335</v>
+        <v>0.7552804443973163</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8201526780501721</v>
+        <v>0.8178687410193046</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>637</v>
@@ -10158,19 +10158,19 @@
         <v>641266</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>619966</v>
+        <v>620478</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>660864</v>
+        <v>662014</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8065147937119685</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7797263882382254</v>
+        <v>0.7803701108657702</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8311629891243758</v>
+        <v>0.8326097750277757</v>
       </c>
     </row>
     <row r="17">
@@ -10187,19 +10187,19 @@
         <v>36310</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>26448</v>
+        <v>25904</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>51720</v>
+        <v>49130</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.09730682199281702</v>
+        <v>0.09730682199281704</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07087767208364533</v>
+        <v>0.06942093641124342</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1386057071536234</v>
+        <v>0.1316659570750321</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>121</v>
@@ -10208,19 +10208,19 @@
         <v>59904</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>49219</v>
+        <v>50058</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>71624</v>
+        <v>71223</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1419646688824321</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.116642933549627</v>
+        <v>0.1186313413293042</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1697412981557654</v>
+        <v>0.1687898547704821</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>162</v>
@@ -10229,19 +10229,19 @@
         <v>96213</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>80069</v>
+        <v>79976</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>112744</v>
+        <v>113051</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.1210066468071546</v>
+        <v>0.1210066468071545</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1007024847603862</v>
+        <v>0.1005849451122703</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1417970211210966</v>
+        <v>0.1421834457628441</v>
       </c>
     </row>
     <row r="18">
@@ -10258,19 +10258,19 @@
         <v>28041</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>18669</v>
+        <v>18942</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>41659</v>
+        <v>42178</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.07514742402406918</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.0500316148598577</v>
+        <v>0.05076378288530638</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1116430926071868</v>
+        <v>0.1130325670513648</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>63</v>
@@ -10279,19 +10279,19 @@
         <v>29587</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>22412</v>
+        <v>23572</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>37859</v>
+        <v>38180</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.07011845249906012</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.05311369480344946</v>
+        <v>0.05586235228463031</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.08972060329031312</v>
+        <v>0.09048117843234367</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>92</v>
@@ -10300,19 +10300,19 @@
         <v>57628</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>44819</v>
+        <v>45073</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>71644</v>
+        <v>72720</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.07247855948087682</v>
+        <v>0.07247855948087679</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.05636852690802913</v>
+        <v>0.05668789470838177</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.09010626278964187</v>
+        <v>0.09145881791549158</v>
       </c>
     </row>
     <row r="19">
@@ -10404,19 +10404,19 @@
         <v>182140</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>173885</v>
+        <v>174591</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>188410</v>
+        <v>188138</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8856151825607166</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8454776454780049</v>
+        <v>0.8489109589546662</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9161005219944959</v>
+        <v>0.9147803331397392</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>345</v>
@@ -10425,19 +10425,19 @@
         <v>169719</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>160385</v>
+        <v>160755</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>178319</v>
+        <v>179092</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7434668078777613</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7025753089068215</v>
+        <v>0.7041978412074469</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7811377596709733</v>
+        <v>0.7845253996382292</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>583</v>
@@ -10446,19 +10446,19 @@
         <v>351859</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>340528</v>
+        <v>340227</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>362503</v>
+        <v>362970</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8108367176928915</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.784723223583448</v>
+        <v>0.7840312272105138</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8353641835648418</v>
+        <v>0.8364399103401395</v>
       </c>
     </row>
     <row r="21">
@@ -10475,19 +10475,19 @@
         <v>17826</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>12266</v>
+        <v>12324</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>24910</v>
+        <v>24418</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.08667456760413553</v>
+        <v>0.08667456760413551</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.05964034628298382</v>
+        <v>0.05992436853090922</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1211211605145326</v>
+        <v>0.1187273309203268</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>118</v>
@@ -10496,19 +10496,19 @@
         <v>46055</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>38629</v>
+        <v>37807</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>54499</v>
+        <v>54332</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2017471043612346</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1692184127286348</v>
+        <v>0.1656151871642927</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2387376316168935</v>
+        <v>0.2380030194224234</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>149</v>
@@ -10517,19 +10517,19 @@
         <v>63881</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>53801</v>
+        <v>54058</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>73795</v>
+        <v>74112</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1472095379570118</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1239799516004027</v>
+        <v>0.124573660373834</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1700562812276385</v>
+        <v>0.1707853668713807</v>
       </c>
     </row>
     <row r="22">
@@ -10546,19 +10546,19 @@
         <v>5699</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2839</v>
+        <v>2859</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>9929</v>
+        <v>9986</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02771024983514794</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01380466871023904</v>
+        <v>0.0139004658399546</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04827929391046866</v>
+        <v>0.04855598109470363</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>31</v>
@@ -10567,19 +10567,19 @@
         <v>12507</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>8682</v>
+        <v>8562</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>17460</v>
+        <v>16515</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.05478608776100401</v>
+        <v>0.05478608776100399</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03803035502808905</v>
+        <v>0.03750707730347056</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07648657126388803</v>
+        <v>0.0723445219933699</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>41</v>
@@ -10588,19 +10588,19 @@
         <v>18206</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>13097</v>
+        <v>13105</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>24792</v>
+        <v>24655</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04195374435009671</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03018099917572865</v>
+        <v>0.03020006254012815</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05713197490840734</v>
+        <v>0.056815530776951</v>
       </c>
     </row>
     <row r="23">
@@ -10692,19 +10692,19 @@
         <v>236939</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>227502</v>
+        <v>226788</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>244302</v>
+        <v>244174</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.8752585462511301</v>
+        <v>0.8752585462511303</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.8403992572009759</v>
+        <v>0.8377630685411197</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.9024579156444025</v>
+        <v>0.9019871532324507</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>334</v>
@@ -10713,19 +10713,19 @@
         <v>212685</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>202974</v>
+        <v>203214</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>220718</v>
+        <v>221329</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.8063876959312144</v>
+        <v>0.8063876959312142</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.7695688410714309</v>
+        <v>0.7704804177023767</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.8368465727554515</v>
+        <v>0.8391613096684445</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>639</v>
@@ -10734,19 +10734,19 @@
         <v>449623</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>436635</v>
+        <v>437388</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>461192</v>
+        <v>462100</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.841271344924476</v>
+        <v>0.8412713449244762</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.8169692764403181</v>
+        <v>0.8183779635779258</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.862916879269874</v>
+        <v>0.86461567774628</v>
       </c>
     </row>
     <row r="25">
@@ -10763,19 +10763,19 @@
         <v>18877</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>13654</v>
+        <v>13490</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>27341</v>
+        <v>26537</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06973316312992266</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05043736882090392</v>
+        <v>0.04983081590275108</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1010000337151321</v>
+        <v>0.09802714211942636</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>61</v>
@@ -10784,19 +10784,19 @@
         <v>25979</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>19892</v>
+        <v>19700</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>32972</v>
+        <v>33004</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.09849730948026034</v>
+        <v>0.09849730948026025</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07542091137156763</v>
+        <v>0.07469158606836759</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1250114006324497</v>
+        <v>0.125132909179926</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>96</v>
@@ -10805,19 +10805,19 @@
         <v>44856</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>35847</v>
+        <v>34974</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>54858</v>
+        <v>54309</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.08392803408704173</v>
+        <v>0.08392803408704172</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06707223534509212</v>
+        <v>0.06543931166931514</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1026422174178336</v>
+        <v>0.101614358460723</v>
       </c>
     </row>
     <row r="26">
@@ -10834,19 +10834,19 @@
         <v>14891</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>10109</v>
+        <v>10293</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>20948</v>
+        <v>21289</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.05500829061894715</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.03734175829669183</v>
+        <v>0.03802215726748107</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.07738291487857625</v>
+        <v>0.07864154645680305</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>65</v>
@@ -10855,19 +10855,19 @@
         <v>25087</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>19261</v>
+        <v>19860</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>31467</v>
+        <v>32043</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.09511499458852543</v>
+        <v>0.09511499458852539</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.07302595502911989</v>
+        <v>0.07529842913539776</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1193054650433776</v>
+        <v>0.1214898986885944</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>96</v>
@@ -10876,19 +10876,19 @@
         <v>39978</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>31844</v>
+        <v>31928</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>48677</v>
+        <v>48518</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.07480062098848221</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.05958256617865743</v>
+        <v>0.05973840980841599</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.09107687381248745</v>
+        <v>0.09077931756373885</v>
       </c>
     </row>
     <row r="27">
@@ -10980,19 +10980,19 @@
         <v>600047</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>577777</v>
+        <v>577670</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>619029</v>
+        <v>619541</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.8347754370271899</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.8037936653315711</v>
+        <v>0.8036445607455245</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8611822334396791</v>
+        <v>0.8618942091240865</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>684</v>
@@ -11001,19 +11001,19 @@
         <v>575891</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>555747</v>
+        <v>553372</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>596787</v>
+        <v>595643</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.7459171704357049</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.7198266738467778</v>
+        <v>0.7167498379252216</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7729824983141338</v>
+        <v>0.7715011452355672</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1165</v>
@@ -11022,19 +11022,19 @@
         <v>1175938</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1144847</v>
+        <v>1144214</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1205335</v>
+        <v>1204611</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.7887595913914888</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.7679056284195611</v>
+        <v>0.7674806834040394</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8084773350134419</v>
+        <v>0.8079922419533579</v>
       </c>
     </row>
     <row r="29">
@@ -11051,19 +11051,19 @@
         <v>85978</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>69923</v>
+        <v>68440</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>105858</v>
+        <v>103923</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1196112775804525</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.09727600902408155</v>
+        <v>0.09521299081112299</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1472678980456796</v>
+        <v>0.1445755083070039</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>163</v>
@@ -11072,19 +11072,19 @@
         <v>117580</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>101085</v>
+        <v>100773</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>135547</v>
+        <v>135513</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.1522944829143131</v>
+        <v>0.1522944829143132</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1309296485512606</v>
+        <v>0.1305255054389628</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1755663228463623</v>
+        <v>0.1755225744889689</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>248</v>
@@ -11093,19 +11093,19 @@
         <v>203558</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>178235</v>
+        <v>177212</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>229948</v>
+        <v>229281</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1365364933112192</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1195511437507834</v>
+        <v>0.1188646982097153</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1542377836373781</v>
+        <v>0.1537902064909295</v>
       </c>
     </row>
     <row r="30">
@@ -11122,19 +11122,19 @@
         <v>32787</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>22133</v>
+        <v>22121</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>45135</v>
+        <v>44639</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.0456132853923576</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.03079049655926844</v>
+        <v>0.03077414833017187</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.06279125173974651</v>
+        <v>0.06210060535361879</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>113</v>
@@ -11143,19 +11143,19 @@
         <v>78586</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>65214</v>
+        <v>65223</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>93382</v>
+        <v>93004</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1017883466499817</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.08446816618449481</v>
+        <v>0.08447950634662822</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1209517515557489</v>
+        <v>0.1204629146667914</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>145</v>
@@ -11164,19 +11164,19 @@
         <v>111374</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>95003</v>
+        <v>93424</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>130180</v>
+        <v>128737</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.07470391529729213</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.06372293463657824</v>
+        <v>0.06266385304654812</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.08731820680634479</v>
+        <v>0.08635000138455777</v>
       </c>
     </row>
     <row r="31">
@@ -11268,19 +11268,19 @@
         <v>697618</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>678549</v>
+        <v>679136</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>713099</v>
+        <v>714303</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8741290227301195</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8502353323264835</v>
+        <v>0.8509704195662705</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8935272717219008</v>
+        <v>0.895035277112767</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>774</v>
@@ -11289,19 +11289,19 @@
         <v>637970</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>617595</v>
+        <v>617255</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>660069</v>
+        <v>658017</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.7674077393842482</v>
+        <v>0.7674077393842481</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.7428992994644915</v>
+        <v>0.7424895994625295</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7939907751798515</v>
+        <v>0.7915219290476413</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1416</v>
@@ -11310,19 +11310,19 @@
         <v>1335588</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1305461</v>
+        <v>1307853</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1361032</v>
+        <v>1361126</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.8196791779913789</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8011899051046494</v>
+        <v>0.8026577214928404</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8352945975293327</v>
+        <v>0.8353527969432258</v>
       </c>
     </row>
     <row r="33">
@@ -11339,19 +11339,19 @@
         <v>69917</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>56621</v>
+        <v>56696</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>87439</v>
+        <v>86527</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.08760683549293871</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.0709470605431933</v>
+        <v>0.07104146742456373</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1095630411733013</v>
+        <v>0.1084198708618546</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>177</v>
@@ -11360,19 +11360,19 @@
         <v>120124</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>104484</v>
+        <v>104110</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>137916</v>
+        <v>137043</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.1444961411135753</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1256822802799969</v>
+        <v>0.1252323865513865</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1658982164333358</v>
+        <v>0.1648480689207908</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>261</v>
@@ -11381,19 +11381,19 @@
         <v>190041</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>167282</v>
+        <v>169691</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>216285</v>
+        <v>213869</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1166321035671561</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.1026645791249258</v>
+        <v>0.1041430251132721</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1327388742828648</v>
+        <v>0.1312557850555743</v>
       </c>
     </row>
     <row r="34">
@@ -11410,19 +11410,19 @@
         <v>30538</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>21780</v>
+        <v>21852</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>41473</v>
+        <v>41816</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.03826414177694176</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.02729082094245922</v>
+        <v>0.02738071152126838</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.0519660567161174</v>
+        <v>0.05239683884369845</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>111</v>
@@ -11431,19 +11431,19 @@
         <v>73237</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>60085</v>
+        <v>60441</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>86226</v>
+        <v>87837</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.08809611950217658</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.0722760110583619</v>
+        <v>0.07270338521195091</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1037209129162342</v>
+        <v>0.1056587144757083</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>147</v>
@@ -11452,19 +11452,19 @@
         <v>103775</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>86344</v>
+        <v>87323</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>120092</v>
+        <v>121690</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.06368871844146502</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.0529910815763957</v>
+        <v>0.05359229285325798</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.07370290138271164</v>
+        <v>0.07468370219503835</v>
       </c>
     </row>
     <row r="35">
@@ -11556,19 +11556,19 @@
         <v>3002818</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2961634</v>
+        <v>2958846</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>3042118</v>
+        <v>3044706</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.8502020529395752</v>
+        <v>0.8502020529395753</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.8385412169150178</v>
+        <v>0.8377520686197484</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.8613292023699664</v>
+        <v>0.8620620023843347</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>3889</v>
@@ -11577,19 +11577,19 @@
         <v>2885907</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>2847397</v>
+        <v>2840487</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>2927804</v>
+        <v>2929804</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.7725124054938703</v>
+        <v>0.7725124054938702</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.7622038061812495</v>
+        <v>0.7603541239252852</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.783727642019131</v>
+        <v>0.7842630508140062</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>6636</v>
@@ -11598,19 +11598,19 @@
         <v>5888725</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>5827149</v>
+        <v>5830206</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>5944568</v>
+        <v>5947628</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.8102676488930093</v>
+        <v>0.8102676488930094</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.8017950488216441</v>
+        <v>0.8022157539618204</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.8179514296387238</v>
+        <v>0.8183725228591318</v>
       </c>
     </row>
     <row r="37">
@@ -11627,19 +11627,19 @@
         <v>367211</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>331383</v>
+        <v>336133</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>403154</v>
+        <v>404382</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.1039700405089597</v>
+        <v>0.1039700405089596</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.09382615029498892</v>
+        <v>0.09517100071469758</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1141469758861113</v>
+        <v>0.1144945084082329</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>944</v>
@@ -11648,19 +11648,19 @@
         <v>543945</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>511348</v>
+        <v>511111</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>578616</v>
+        <v>580933</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.1456056630657861</v>
+        <v>0.145605663065786</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1368799053066969</v>
+        <v>0.136816475348721</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.154886412542166</v>
+        <v>0.1555068388472919</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1369</v>
@@ -11669,19 +11669,19 @@
         <v>911156</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>864512</v>
+        <v>860751</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>962442</v>
+        <v>958273</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1253717822928521</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1189537810104703</v>
+        <v>0.1184362282575096</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1324286258095256</v>
+        <v>0.1318550250696327</v>
       </c>
     </row>
     <row r="38">
@@ -11698,19 +11698,19 @@
         <v>161859</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>141114</v>
+        <v>141299</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>189767</v>
+        <v>188128</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.04582790655146515</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.03995437459948622</v>
+        <v>0.04000677859848178</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.05372963551679966</v>
+        <v>0.05326562618642845</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>532</v>
@@ -11719,19 +11719,19 @@
         <v>305890</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>281250</v>
+        <v>279921</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>334955</v>
+        <v>332815</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.08188193144034366</v>
+        <v>0.08188193144034364</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.07528629903472694</v>
+        <v>0.07493044249202907</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.08966227364521392</v>
+        <v>0.08908938031992641</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>735</v>
@@ -11740,19 +11740,19 @@
         <v>467749</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>431093</v>
+        <v>435605</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>500353</v>
+        <v>504576</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.06436056881413851</v>
+        <v>0.06436056881413853</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.05931687471088088</v>
+        <v>0.05993775795194784</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.06884683392876538</v>
+        <v>0.06942788182608674</v>
       </c>
     </row>
     <row r="39">
